--- a/exports/reporte_aprendices.xlsx
+++ b/exports/reporte_aprendices.xlsx
@@ -15,56 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>Número de Documento</t>
-  </si>
-  <si>
-    <t>Nombre Completo</t>
-  </si>
-  <si>
-    <t>Entrada</t>
-  </si>
-  <si>
-    <t>Salida</t>
-  </si>
-  <si>
-    <t>Fecha</t>
-  </si>
-  <si>
-    <t>Asistencias</t>
-  </si>
-  <si>
-    <t>Inasistencias</t>
-  </si>
-  <si>
-    <t>Marcela Zapata</t>
-  </si>
-  <si>
-    <t>23:51:32</t>
-  </si>
-  <si>
-    <t>23:51:39</t>
-  </si>
-  <si>
-    <t>2023-09-24</t>
-  </si>
-  <si>
-    <t>Asistió</t>
-  </si>
-  <si>
-    <t>Mariana Valencia</t>
-  </si>
-  <si>
-    <t>17:23:45</t>
-  </si>
-  <si>
-    <t>2023-09-25</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -402,91 +353,14 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>176524378</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>123456783</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3"/>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/exports/reporte_aprendices.xlsx
+++ b/exports/reporte_aprendices.xlsx
@@ -15,7 +15,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Número de Documento</t>
+  </si>
+  <si>
+    <t>Nombre Completo</t>
+  </si>
+  <si>
+    <t>Entrada</t>
+  </si>
+  <si>
+    <t>Salida</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Asistencias</t>
+  </si>
+  <si>
+    <t>Inasistencias</t>
+  </si>
+  <si>
+    <t>Marcela Zapata</t>
+  </si>
+  <si>
+    <t>07:21:54</t>
+  </si>
+  <si>
+    <t>07:22:00</t>
+  </si>
+  <si>
+    <t>2023-09-27</t>
+  </si>
+  <si>
+    <t>Asistió</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -353,14 +393,67 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>176524378</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
